--- a/DownloadDataForDK/ModelData/Final_Dataset/MarketMaps.xlsx
+++ b/DownloadDataForDK/ModelData/Final_Dataset/MarketMaps.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpher\Documents\Uni\Master\02_Exchange\01_Academics\Energy Economics of the Green Transition\0_Final Project\EnergyEconGroupWork\DownloadDataForDK\ModelData\Final_Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpher\Documents\Uni\Master\02_Exchange\01_Academics\Energy Economics of the Green Transition\EnergyEconGroupWork\DownloadDataForDK\ModelData\Final_Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ED35780-E066-4878-991D-1BE81B90382E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DFDB0F-AE5E-461E-BE74-E51BF90A8FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{C3D97373-8321-4300-B4DA-DD95EB4D71C4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>g_E2g_H/g_E</t>
   </si>
@@ -56,28 +56,13 @@
     <t>g_H2g/g</t>
   </si>
   <si>
-    <t>DK1</t>
-  </si>
-  <si>
-    <t>DK1_Central</t>
-  </si>
-  <si>
-    <t>DK1_LargeDecentral</t>
-  </si>
-  <si>
-    <t>DK2</t>
-  </si>
-  <si>
-    <t>DK1_SmallDecentral</t>
-  </si>
-  <si>
-    <t>DK2_Central</t>
-  </si>
-  <si>
-    <t>DK2_LargeDecentral</t>
-  </si>
-  <si>
-    <t>DK2_SmallDecentral</t>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>DK_Central</t>
+  </si>
+  <si>
+    <t>DK_Decentral</t>
   </si>
 </sst>
 </file>
@@ -429,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F171FC8-D477-47E5-B5FC-0AEF066D9983}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="F4" sqref="F4:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -484,79 +469,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/DownloadDataForDK/ModelData/Final_Dataset/MarketMaps.xlsx
+++ b/DownloadDataForDK/ModelData/Final_Dataset/MarketMaps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpher\Documents\Uni\Master\02_Exchange\01_Academics\Energy Economics of the Green Transition\EnergyEconGroupWork\DownloadDataForDK\ModelData\Final_Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C84905E-34D4-4331-9619-770A85865F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037087EC-2861-4A76-A8BF-1B45FDE4E00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{44E2BC75-054A-415F-B538-80330DE78DAA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>g_E2g_H/g_E</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>DK_Central</t>
-  </si>
-  <si>
-    <t>DK_Decentral</t>
   </si>
 </sst>
 </file>
@@ -414,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{827E96D6-B692-49B1-A363-61423EB0E15F}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -468,20 +465,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
